--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\OneDrive\문서\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C5A90DE-6E12-4438-A783-A0E074B12DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE319AF-226F-4C51-A810-4A86BD5DFBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="10060" tabRatio="722" firstSheet="7" activeTab="15" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="7" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -3039,7 +3039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0A645-0D18-49AB-A0D5-E7F84AF1CE91}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -4058,8 +4058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE319AF-226F-4C51-A810-4A86BD5DFBDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0FB179-9FC4-4AE9-A6E5-DD524E1460B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="7" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="10" activeTab="22" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -29,6 +29,13 @@
     <sheet name="301021_1_" sheetId="16" r:id="rId14"/>
     <sheet name="301021_2" sheetId="15" r:id="rId15"/>
     <sheet name="301021_2_" sheetId="17" r:id="rId16"/>
+    <sheet name="301021_fail" sheetId="21" r:id="rId17"/>
+    <sheet name="301021_3" sheetId="19" r:id="rId18"/>
+    <sheet name="301021_3_" sheetId="22" r:id="rId19"/>
+    <sheet name="301021_4" sheetId="20" r:id="rId20"/>
+    <sheet name="301021_4_" sheetId="23" r:id="rId21"/>
+    <sheet name="301022_success" sheetId="24" r:id="rId22"/>
+    <sheet name="301022" sheetId="18" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,6 +164,142 @@
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
       <text>
         <r>
           <rPr>
@@ -576,10 +719,31 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BEC22822-020D-4DE4-A604-18319AE9E6C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1:Animation
+2:Dialogue
+3:temp
+4:tempend
+5:taskend
+6:new
+7:theend</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
       <text>
         <r>
           <rPr>
@@ -759,7 +923,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="229">
   <si>
     <t>이름</t>
   </si>
@@ -1390,6 +1554,263 @@
   </si>
   <si>
     <t>301021_choice</t>
+  </si>
+  <si>
+    <t>3,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로성공/오운에게 전화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위로실패/선택지 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운에게 전화를 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경쓰지 말고 갈 길을 간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301022</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_4</t>
+  </si>
+  <si>
+    <t>301021_4</t>
+  </si>
+  <si>
+    <t>301021_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_3_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_fail</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_4_</t>
+  </si>
+  <si>
+    <t>301021_3_</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301022_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301022_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 스핏의 집 밖에 나와 길거리에 서있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 어떻게 하지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 혹시 오운이라면…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 과연 오운이 도와줄까…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 오운이니까…! 오운이라면 분명히 도와줄꺼야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 핸드폰을 꺼내 전화를 걸었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜….뚜.....뚜…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여보세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운! 나야! 라우!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~라우! 무슨 일로 전화했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어… 다름이 아니라…혹시 소문 들었어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 무슨 소문??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 이 동네에서 누가 죽었는데…그게 내 친구랑 관련있거든…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 무슨 일이야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 자세한 내용은 만나서 하고, 물론 내 친구가 죽였다는 거 아니야. 오히려 반대 상황이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 굉장히 큰 문제가 생긴 것 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…그래서 너한테 전화했어… 나혼자서는 도와주긴 힘들 것 같아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았어. 어디로 가면 될까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운…고마워…진짜로..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐 친구끼리 이정도야 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 위치 찍어줄께 거기로 와줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 내가 괜히 간섭한다고 되겠어..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 괜히 오운 불편하게 만드는 거 같고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운이랑 그렇게 가깝지도 않은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>합계</t>
+  </si>
+  <si>
+    <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….그냥 내 갈 길 가야겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘있어 얘들아, 그리고 세모마을…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 그렇게 세모마을을 떠나게 되었고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세모 마을은 아무일이 없었다는 듯이 일상으로 돌아갔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유일하게 스핏만이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로 외로히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두려움에 떨게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Ending &lt;지나가는 나그네&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 전화기를 끊었고, 안도의 한숨을 쉬었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행이야…스핏을 도울 수 있게 되어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 할 수 있는 한 최선을 다해서 이 이상한 상황에서 벗어나게 해야겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2145,7 +2566,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2285,29 +2706,85 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>165</v>
       </c>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>182</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>181</v>
+      </c>
+      <c r="B14">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="D16" s="1"/>
@@ -2327,7 +2804,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2612,6 +3090,855 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DC9729-32A2-4D45-B515-782DB9505E5C}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0A645-0D18-49AB-A0D5-E7F84AF1CE91}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42B447-B130-4A1D-A4FF-9CCF0739C487}">
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1597F3-05EF-40CB-B88F-46EDBB3160AE}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2625,7 +3952,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -2684,7 +4011,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -2692,13 +4019,27 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>1</v>
+      <c r="D7">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2707,353 +4048,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DC9729-32A2-4D45-B515-782DB9505E5C}">
-  <dimension ref="A1:D20"/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA5BB90-2016-4700-8137-54B3F646F74A}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D20" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="10.4140625" customWidth="1"/>
     <col min="2" max="2" width="20.08203125" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="3" max="3" width="14.4140625" customWidth="1"/>
+    <col min="4" max="4" width="69.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0A645-0D18-49AB-A0D5-E7F84AF1CE91}">
-  <dimension ref="A1:D20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3109,165 +4122,13 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>109</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15" t="s">
-        <v>110</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D20" s="1"/>
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3434,6 +4295,725 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF960CA3-A003-4D8E-A931-113F605B8090}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>193</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>194</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4058,7 +5638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0FB179-9FC4-4AE9-A6E5-DD524E1460B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95705841-C136-48BA-83AF-BAD2E1D56FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="10" activeTab="22" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -33,9 +33,9 @@
     <sheet name="301021_3" sheetId="19" r:id="rId18"/>
     <sheet name="301021_3_" sheetId="22" r:id="rId19"/>
     <sheet name="301021_4" sheetId="20" r:id="rId20"/>
-    <sheet name="301021_4_" sheetId="23" r:id="rId21"/>
-    <sheet name="301022_success" sheetId="24" r:id="rId22"/>
-    <sheet name="301022" sheetId="18" r:id="rId23"/>
+    <sheet name="301022_success" sheetId="24" r:id="rId21"/>
+    <sheet name="301022" sheetId="18" r:id="rId22"/>
+    <sheet name="301021_4_" sheetId="23" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -265,7 +265,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
       <text>
         <r>
           <rPr>
@@ -299,7 +299,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
       <text>
         <r>
           <rPr>
@@ -923,7 +923,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="222">
   <si>
     <t>이름</t>
   </si>
@@ -1556,14 +1556,6 @@
     <t>301021_choice</t>
   </si>
   <si>
-    <t>3,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m3,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위로성공/오운에게 전화</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1622,10 +1614,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>끝2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dialogue_ep3/301022_success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1751,21 +1739,6 @@
   </si>
   <si>
     <t>오운이랑 그렇게 가깝지도 않은데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>합계</t>
-  </si>
-  <si>
-    <t>평균</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>누계</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2563,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBCAD39-DA3A-42C3-BC98-7B0196DAE677}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2661,7 +2634,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -2681,7 +2654,7 @@
         <v>130</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>31</v>
@@ -2698,108 +2671,20 @@
         <v>131</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9">
-        <v>2</v>
-      </c>
-      <c r="E9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>177</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>168</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13">
-        <v>-1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D20" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3087,10 +2972,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBE132-5EE2-48DF-BEF8-3AF387A4FB38}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3098,10 +2983,10 @@
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="20.08203125" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -3112,7 +2997,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3125,8 +3010,14 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3140,7 +3031,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3154,12 +3045,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>134</v>
@@ -3168,15 +3059,96 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6">
         <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>179</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3420,7 +3392,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3489,7 +3461,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>135</v>
@@ -3503,7 +3475,7 @@
         <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3785,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3835,7 +3807,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3849,7 +3821,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -3863,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -3877,7 +3849,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3891,7 +3863,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3939,7 +3911,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3952,7 +3924,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4008,10 +3980,10 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4022,13 +3994,13 @@
         <v>28</v>
       </c>
       <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6">
         <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4039,7 +4011,7 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4066,7 +4038,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4122,12 +4094,12 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -4142,7 +4114,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4236,7 +4208,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -4303,7 +4275,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4316,7 +4288,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4372,10 +4344,10 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4399,11 +4371,432 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF960CA3-A003-4D8E-A931-113F605B8090}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>191</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s">
+        <v>191</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4416,7 +4809,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4472,7 +4865,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4486,7 +4879,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4500,7 +4893,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4514,7 +4907,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4528,7 +4921,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4542,7 +4935,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4556,458 +4949,37 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>225</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
-    <col min="2" max="2" width="20.08203125" customWidth="1"/>
-    <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF960CA3-A003-4D8E-A931-113F605B8090}">
-  <dimension ref="A1:D23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>194</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>193</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>193</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>194</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>193</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14" t="s">
-        <v>194</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16" t="s">
-        <v>194</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>193</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D21" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -5019,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A1D2-D6EB-4ADC-AC1E-9B15984B6922}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5091,7 +5063,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>43</v>
@@ -5111,7 +5083,7 @@
         <v>63</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5119,10 +5091,15 @@
         <v>32</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5135,7 +5112,127 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA3AC56-C1F1-4F24-8AC7-5B7F813120C8}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7BE9F8-36EC-46EB-8431-ABB2D7455048}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -5196,126 +5293,6 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7BE9F8-36EC-46EB-8431-ABB2D7455048}">
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="47.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1" t="s">
         <v>61</v>
       </c>
     </row>
@@ -5421,7 +5398,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5490,7 +5467,7 @@
         <v>28</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>44</v>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95705841-C136-48BA-83AF-BAD2E1D56FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430DF35-D46E-49C0-880B-4DF8E95D2F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="3" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="6" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -3161,8 +3161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DC9729-32A2-4D45-B515-782DB9505E5C}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5112,7 +5112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA3AC56-C1F1-4F24-8AC7-5B7F813120C8}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430DF35-D46E-49C0-880B-4DF8E95D2F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD7CAC3-84B3-4AA7-9D92-BECDFF17BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="6" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -126,30 +126,112 @@
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>훠이</author>
+    <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3323092F-88EB-47CE-A568-7FFCE3FA0D1A}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4:TEMPEND
+5:TaskReset(Task</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: NEW(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Task)
+7:THEEND(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+8:TempDialogueEnd</t>
         </r>
       </text>
     </comment>
@@ -163,7 +245,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
       <text>
         <r>
           <rPr>
@@ -197,27 +279,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -231,7 +464,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
       <text>
         <r>
           <rPr>
@@ -265,7 +498,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
       <text>
         <r>
           <rPr>
@@ -299,7 +532,192 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
       <text>
         <r>
           <rPr>
@@ -327,13 +745,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{DFD84E2C-5126-4770-B900-2DA55B345F34}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
       <text>
         <r>
           <rPr>
@@ -505,6 +923,561 @@
           </rPr>
           <t xml:space="preserve">자존감
 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{7DCB8DC7-4843-4A52-9DB7-938E55EAC57E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4:TEMPEND
+5:TaskReset(Task</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: NEW(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Task)
+7:THEEND(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+8:TempDialogueEnd</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{DFD84E2C-5126-4770-B900-2DA55B345F34}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -733,13 +1706,99 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>1:Animation
-2:Dialogue
-3:temp
-4:tempend
-5:taskend
-6:new
-7:theend</t>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4:TEMPEND
+5:TaskReset(Task</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: NEW(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Task)
+7:THEEND(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+8:TempDialogueEnd</t>
         </r>
       </text>
     </comment>
@@ -923,7 +1982,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="220">
   <si>
     <t>이름</t>
   </si>
@@ -1556,10 +2615,6 @@
     <t>301021_choice</t>
   </si>
   <si>
-    <t>위로성공/오운에게 전화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>위로실패/선택지 제시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1611,10 +2666,6 @@
   </si>
   <si>
     <t>dialogue_ep3/301021_4_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301022_success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1793,7 +2844,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1819,6 +2870,12 @@
     </font>
     <font>
       <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -2539,7 +3596,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2699,7 +3756,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2971,11 +4028,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBE132-5EE2-48DF-BEF8-3AF387A4FB38}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBE132-5EE2-48DF-BEF8-3AF387A4FB38}">
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3060,28 +4117,28 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>163</v>
+      </c>
       <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
         <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>163</v>
-      </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>179</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -3089,71 +4146,53 @@
         <v>164</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
       <c r="B9">
         <v>3</v>
       </c>
-      <c r="C9">
-        <v>2</v>
+      <c r="C9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>166</v>
-      </c>
-      <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3161,7 +4200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DC9729-32A2-4D45-B515-782DB9505E5C}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -3388,11 +4427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3403,7 +4442,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>137</v>
       </c>
@@ -3414,7 +4453,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3427,8 +4466,14 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3441,8 +4486,14 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3455,8 +4506,14 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3470,18 +4527,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -3489,12 +4549,13 @@
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3757,7 +4818,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -3807,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -3821,7 +4882,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -3835,7 +4896,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -3849,7 +4910,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -3863,7 +4924,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -3907,11 +4968,11 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1597F3-05EF-40CB-B88F-46EDBB3160AE}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1597F3-05EF-40CB-B88F-46EDBB3160AE}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3922,9 +4983,9 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -3933,7 +4994,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -3946,8 +5007,14 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -3960,8 +5027,14 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3974,8 +5047,14 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -3983,13 +5062,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -3997,13 +5076,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -4017,6 +5096,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4038,7 +5118,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4094,12 +5174,12 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4113,8 +5193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4256,7 +5336,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -4271,11 +5351,11 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4286,9 +5366,9 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4297,7 +5377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4310,8 +5390,14 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4324,8 +5410,14 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4338,8 +5430,14 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4347,13 +5445,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4367,15 +5465,16 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4386,9 +5485,9 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4397,7 +5496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4410,8 +5509,14 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4424,8 +5529,14 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4438,8 +5549,14 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4447,13 +5564,13 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -4467,6 +5584,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4488,7 +5606,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4535,24 +5653,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4566,21 +5684,21 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4594,21 +5712,21 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4622,21 +5740,21 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4650,21 +5768,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -4678,21 +5796,21 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -4706,21 +5824,21 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -4734,26 +5852,26 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -4767,7 +5885,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -4781,7 +5899,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -4796,7 +5914,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4809,7 +5927,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4865,7 +5983,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4879,7 +5997,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4893,7 +6011,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4907,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4921,7 +6039,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4935,7 +6053,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4949,37 +6067,37 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD7CAC3-84B3-4AA7-9D92-BECDFF17BB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13561651-0177-41EA-A03A-D4483CA906BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" activeTab="1" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="7" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -92,6 +92,298 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BEC22822-020D-4DE4-A604-18319AE9E6C2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>0: NONE 
+1: ANIMATION 
+2: DIALOGUE
+3:TEMP(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>선택지</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+4:TEMPEND
+5:TaskReset(Task</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>종료</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+6: NEW(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>새로운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Task)
+7:THEEND(</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>엔딩</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>)
+8:TempDialogueEnd</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>훠이</author>
   </authors>
   <commentList>
@@ -123,10 +415,11 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>최선</author>
+    <author>훠이</author>
   </authors>
   <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3323092F-88EB-47CE-A568-7FFCE3FA0D1A}">
@@ -235,37 +528,178 @@
         </r>
       </text>
     </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D29E8183-26F5-4C51-95BA-714DB3829C66}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -279,178 +713,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -464,27 +747,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -498,7 +932,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
       <text>
         <r>
           <rPr>
@@ -532,178 +966,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -717,27 +1000,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -751,178 +1185,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -936,7 +1219,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
       <text>
         <r>
           <rPr>
@@ -1423,27 +1706,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1457,6 +1891,40 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
       <text>
         <r>
@@ -1491,27 +1959,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{172C8062-374C-461D-9BA3-78CF3D51804F}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{0AAF2F1C-B410-4B18-AC92-9ADB3F8D6741}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1525,7 +2144,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A5684999-B5B4-4239-BEF9-19FC5CCE9957}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{172C8062-374C-461D-9BA3-78CF3D51804F}">
       <text>
         <r>
           <rPr>
@@ -1559,7 +2178,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CAF3BCBA-BA6D-48A1-8273-01136196AE90}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{A5684999-B5B4-4239-BEF9-19FC5CCE9957}">
       <text>
         <r>
           <rPr>
@@ -1593,7 +2212,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CAF3BCBA-BA6D-48A1-8273-01136196AE90}">
       <text>
         <r>
           <rPr>
@@ -1627,7 +2246,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B4B71EA5-071B-428C-BCA6-C0E6CF12CB86}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
       <text>
         <r>
           <rPr>
@@ -1661,7 +2280,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2A4168A3-0B44-474F-9D30-8E111FB29239}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B4B71EA5-071B-428C-BCA6-C0E6CF12CB86}">
       <text>
         <r>
           <rPr>
@@ -1692,288 +2311,30 @@
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BEC22822-020D-4DE4-A604-18319AE9E6C2}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2A4168A3-0B44-474F-9D30-8E111FB29239}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -1982,7 +2343,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="220">
   <si>
     <t>이름</t>
   </si>
@@ -3596,7 +3957,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4032,7 +4393,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4087,6 +4448,12 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -4100,6 +4467,12 @@
       </c>
       <c r="D4" t="s">
         <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -5193,8 +5566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6108,11 +6481,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A1D2-D6EB-4ADC-AC1E-9B15984B6922}">
-  <dimension ref="A1:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A1D2-D6EB-4ADC-AC1E-9B15984B6922}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6123,7 +6496,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -6134,7 +6507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6147,8 +6520,14 @@
       <c r="D2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -6161,8 +6540,14 @@
       <c r="D3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6175,8 +6560,14 @@
       <c r="D4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -6190,7 +6581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -6204,7 +6595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -6213,16 +6604,12 @@
       </c>
       <c r="D7">
         <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="B8">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6516,7 +6903,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6733,8 +7120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13561651-0177-41EA-A03A-D4483CA906BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF44DB-D857-4316-951C-DED6934ACDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="7" activeTab="7" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="11" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -26,16 +26,18 @@
     <sheet name="301021_choice" sheetId="13" r:id="rId11"/>
     <sheet name="301021" sheetId="10" r:id="rId12"/>
     <sheet name="301021_1" sheetId="14" r:id="rId13"/>
-    <sheet name="301021_1_" sheetId="16" r:id="rId14"/>
-    <sheet name="301021_2" sheetId="15" r:id="rId15"/>
-    <sheet name="301021_2_" sheetId="17" r:id="rId16"/>
-    <sheet name="301021_fail" sheetId="21" r:id="rId17"/>
-    <sheet name="301021_3" sheetId="19" r:id="rId18"/>
-    <sheet name="301021_3_" sheetId="22" r:id="rId19"/>
-    <sheet name="301021_4" sheetId="20" r:id="rId20"/>
-    <sheet name="301022_success" sheetId="24" r:id="rId21"/>
-    <sheet name="301022" sheetId="18" r:id="rId22"/>
-    <sheet name="301021_4_" sheetId="23" r:id="rId23"/>
+    <sheet name="301021_task34" sheetId="26" r:id="rId14"/>
+    <sheet name="301021_1_" sheetId="16" r:id="rId15"/>
+    <sheet name="301021_2" sheetId="15" r:id="rId16"/>
+    <sheet name="301021_2_" sheetId="17" r:id="rId17"/>
+    <sheet name="301021_fail" sheetId="21" r:id="rId18"/>
+    <sheet name="301021_3" sheetId="19" r:id="rId19"/>
+    <sheet name="301021_3_" sheetId="22" r:id="rId20"/>
+    <sheet name="301021_4" sheetId="20" r:id="rId21"/>
+    <sheet name="301022_success" sheetId="24" r:id="rId22"/>
+    <sheet name="301022" sheetId="18" r:id="rId23"/>
+    <sheet name="301021_4_" sheetId="23" r:id="rId24"/>
+    <sheet name="301023" sheetId="25" r:id="rId25"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -106,99 +108,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeOut = 9
+Cinematic = 10
+TempDialogueEnd = 99</t>
         </r>
       </text>
     </comment>
@@ -432,99 +353,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeOut = 9
+Cinematic = 10
+TempDialogueEnd = 99</t>
         </r>
       </text>
     </comment>
@@ -710,30 +550,207 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CBCC1FF-1058-49A5-BD77-6ABC91706C57}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeOut = 9
+Cinematic = 10
+TempDialogueEnd = 99</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A2BDC32D-DFC6-42F1-9A60-F2AC4C052049}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -747,178 +764,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -932,27 +798,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -966,7 +983,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
       <text>
         <r>
           <rPr>
@@ -1000,178 +1017,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -1185,27 +1051,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1219,178 +1236,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -1415,99 +1281,18 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>0: NONE 
-1: ANIMATION 
-2: DIALOGUE
-3:TEMP(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>선택지</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-4:TEMPEND
-5:TaskReset(Task</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>종료</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-6: NEW(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>새로운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Task)
-7:THEEND(</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>엔딩</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>)
-8:TempDialogueEnd</t>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeOut = 9
+Cinematic = 10
+TempDialogueEnd = 99</t>
         </r>
         <r>
           <rPr>
@@ -1706,7 +1491,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
       <text>
         <r>
           <rPr>
@@ -1891,27 +1676,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1925,7 +1861,75 @@
     <author>훠이</author>
   </authors>
   <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
     <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{001699A4-C77F-4C26-B0AB-A5F1E85B2554}">
       <text>
         <r>
           <rPr>
@@ -2343,7 +2347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="224">
   <si>
     <t>이름</t>
   </si>
@@ -2845,356 +2849,370 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>dialogue_ep3/301021_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑같이 되지 않도록 도와주겠다고 말한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람이니 너는 괜찮을 것이라고 해준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_1_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_2_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_1_</t>
+  </si>
+  <si>
+    <t>301021_2</t>
+  </si>
+  <si>
+    <t>301021_2_</t>
+  </si>
+  <si>
+    <t>스핏, 너무 걱정마…저 사람과 아는 사람이라고 해도 일단 다른 사람이잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아는 사람이니까 문제지. 나랑 연결고리가 있는거라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론…그건 그렇지만….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 사람이 잡혔다고 하지만 너를 찾는다는 보장은 없잖아 너무 걱정하지말어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 바보아냐? 애초에 쟤들은 도망친 사람들은 블랙리스트로 올리고 찾는다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 내가 그럼 이렇게 꽁꽁싸매고 숨고 지내는 이유가 뭐겠냐고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론…맞는 말이긴 한데….너무 너가 움츠러들지 않았으면 해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 내가 예민하다? 그래 미안하다. 나 예민하니까 나가줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니…그게 아니..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국 라우는 나갈 수 밖에 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏….너가 얼마나 두려울지 내가 감히 상상할 수 도 없을 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 기억나? 내가 너랑 같이 도망치겠다는 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그거 진심이었어. 그리고, 도와줄 방법이 있을 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐? 어떻게??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…? 정말로?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 알게 된 친구가 인권동아리 하고 또 어머니가 지금 네모마을에서 성착취 여성 돕는 활동하고 계신대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응응, 뭔가 너가 안전하게 해줄 방법을 찾을 수 있을 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치만….도망치는것 만이 방법일까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망치면…다 괜찮아 지는 것일까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 너무 갑작스러울 거라고 생각해. 한번 생각해봐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고뇌하는 스핏을 뒤로하고 라우는 오운에게 연락하기로 결심한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_choice</t>
+  </si>
+  <si>
+    <t>위로실패/선택지 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운에게 전화를 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경쓰지 말고 갈 길을 간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_4</t>
+  </si>
+  <si>
+    <t>301021_4</t>
+  </si>
+  <si>
+    <t>301021_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_3_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_fail</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_4_</t>
+  </si>
+  <si>
+    <t>301021_3_</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 스핏의 집 밖에 나와 길거리에 서있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 어떻게 하지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 혹시 오운이라면…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 과연 오운이 도와줄까…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 오운이니까…! 오운이라면 분명히 도와줄꺼야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 핸드폰을 꺼내 전화를 걸었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜….뚜.....뚜…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여보세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운! 나야! 라우!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~라우! 무슨 일로 전화했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어… 다름이 아니라…혹시 소문 들었어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 무슨 소문??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 이 동네에서 누가 죽었는데…그게 내 친구랑 관련있거든…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 무슨 일이야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 자세한 내용은 만나서 하고, 물론 내 친구가 죽였다는 거 아니야. 오히려 반대 상황이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 굉장히 큰 문제가 생긴 것 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…그래서 너한테 전화했어… 나혼자서는 도와주긴 힘들 것 같아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았어. 어디로 가면 될까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운…고마워…진짜로..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐 친구끼리 이정도야 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 위치 찍어줄께 거기로 와줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 내가 괜히 간섭한다고 되겠어..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 괜히 오운 불편하게 만드는 거 같고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운이랑 그렇게 가깝지도 않은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….그냥 내 갈 길 가야겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘있어 얘들아, 그리고 세모마을…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 그렇게 세모마을을 떠나게 되었고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세모 마을은 아무일이 없었다는 듯이 일상으로 돌아갔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유일하게 스핏만이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로 외로히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두려움에 떨게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Ending &lt;지나가는 나그네&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 전화기를 끊었고, 안도의 한숨을 쉬었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행이야…스핏을 도울 수 있게 되어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 할 수 있는 한 최선을 다해서 이 이상한 상황에서 벗어나게 해야겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over&lt;오지랖 엔딩&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301023</t>
+  </si>
+  <si>
+    <t>301021_task34</t>
+  </si>
+  <si>
     <t>301021_1</t>
   </si>
   <si>
-    <t>dialogue_ep3/301021_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>똑같이 되지 않도록 도와주겠다고 말한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 사람이니 너는 괜찮을 것이라고 해준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_1_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_2_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_1_</t>
-  </si>
-  <si>
-    <t>301021_2</t>
-  </si>
-  <si>
-    <t>301021_2_</t>
-  </si>
-  <si>
-    <t>스핏, 너무 걱정마…저 사람과 아는 사람이라고 해도 일단 다른 사람이잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아는 사람이니까 문제지. 나랑 연결고리가 있는거라고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론…그건 그렇지만….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저 사람이 잡혔다고 하지만 너를 찾는다는 보장은 없잖아 너무 걱정하지말어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너 바보아냐? 애초에 쟤들은 도망친 사람들은 블랙리스트로 올리고 찾는다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애초에 내가 그럼 이렇게 꽁꽁싸매고 숨고 지내는 이유가 뭐겠냐고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론…맞는 말이긴 한데….너무 너가 움츠러들지 않았으면 해서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 내가 예민하다? 그래 미안하다. 나 예민하니까 나가줄래?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니…그게 아니..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나가!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결국 라우는 나갈 수 밖에 없었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏….너가 얼마나 두려울지 내가 감히 상상할 수 도 없을 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데 기억나? 내가 너랑 같이 도망치겠다는 말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그거 진심이었어. 그리고, 도와줄 방법이 있을 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐? 어떻게??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…? 정말로?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에 알게 된 친구가 인권동아리 하고 또 어머니가 지금 네모마을에서 성착취 여성 돕는 활동하고 계신대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응응, 뭔가 너가 안전하게 해줄 방법을 찾을 수 있을 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그치만….도망치는것 만이 방법일까…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도망치면…다 괜찮아 지는 것일까..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론 너무 갑작스러울 거라고 생각해. 한번 생각해봐…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠어….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고뇌하는 스핏을 뒤로하고 라우는 오운에게 연락하기로 결심한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_choice</t>
-  </si>
-  <si>
-    <t>위로실패/선택지 제시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운에게 전화를 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경쓰지 말고 갈 길을 간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>301022_success</t>
   </si>
   <si>
     <t>301022</t>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_4</t>
-  </si>
-  <si>
-    <t>301021_4</t>
-  </si>
-  <si>
-    <t>301021_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_3_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_fail</t>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_4_</t>
-  </si>
-  <si>
-    <t>301021_3_</t>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_4_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301022_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 스핏의 집 밖에 나와 길거리에 서있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 어떻게 하지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 혹시 오운이라면…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 과연 오운이 도와줄까…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래도 오운이니까…! 오운이라면 분명히 도와줄꺼야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 핸드폰을 꺼내 전화를 걸었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚜….뚜.....뚜…..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여보세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운! 나야! 라우!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아~라우! 무슨 일로 전화했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어… 다름이 아니라…혹시 소문 들었어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응? 무슨 소문??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에 이 동네에서 누가 죽었는데…그게 내 친구랑 관련있거든…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 무슨 일이야??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 자세한 내용은 만나서 하고, 물론 내 친구가 죽였다는 거 아니야. 오히려 반대 상황이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 굉장히 큰 문제가 생긴 것 같은데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응…그래서 너한테 전화했어… 나혼자서는 도와주긴 힘들 것 같아서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알았어. 어디로 가면 될까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운…고마워…진짜로..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐 친구끼리 이정도야 뭐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 위치 찍어줄께 거기로 와줘!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어차피 내가 괜히 간섭한다고 되겠어..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 괜히 오운 불편하게 만드는 거 같고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운이랑 그렇게 가깝지도 않은데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….그냥 내 갈 길 가야겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘있어 얘들아, 그리고 세모마을…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 그렇게 세모마을을 떠나게 되었고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세모 마을은 아무일이 없었다는 듯이 일상으로 돌아갔고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유일하게 스핏만이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀로 외로히</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두려움에 떨게 되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Ending &lt;지나가는 나그네&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 전화기를 끊었고, 안도의 한숨을 쉬었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다행이야…스핏을 도울 수 있게 되어서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 할 수 있는 한 최선을 다해서 이 이상한 상황에서 벗어나게 해야겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301022_success</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3592,7 +3610,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3957,7 +3975,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -3970,7 +3988,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4063,13 +4081,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
@@ -4080,13 +4098,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
@@ -4390,10 +4408,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBE132-5EE2-48DF-BEF8-3AF387A4FB38}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4406,7 +4424,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4483,49 +4501,177 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+      <c r="D5">
+        <v>301022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B735065-E9DF-44C9-8F27-0ECDE1230632}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>163</v>
-      </c>
       <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
         <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>174</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>162</v>
+      </c>
       <c r="B7">
         <v>3</v>
       </c>
-      <c r="C7">
-        <v>2</v>
+      <c r="C7" t="s">
+        <v>165</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
         <v>31</v>
@@ -4536,29 +4682,9 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10">
         <v>4</v>
       </c>
     </row>
@@ -4569,12 +4695,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DC9729-32A2-4D45-B515-782DB9505E5C}">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4587,7 +4713,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4643,7 +4769,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4657,7 +4783,7 @@
         <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4671,7 +4797,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -4685,7 +4811,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -4699,7 +4825,7 @@
         <v>110</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4713,7 +4839,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4727,7 +4853,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4741,7 +4867,7 @@
         <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4755,7 +4881,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -4769,12 +4895,12 @@
         <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>148</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -4799,12 +4925,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4817,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4894,7 +5020,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -4908,7 +5034,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4932,7 +5058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0A645-0D18-49AB-A0D5-E7F84AF1CE91}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -4950,7 +5076,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5006,7 +5132,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5020,7 +5146,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5034,7 +5160,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -5048,7 +5174,7 @@
         <v>110</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5062,7 +5188,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5076,7 +5202,7 @@
         <v>110</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -5090,7 +5216,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5104,7 +5230,7 @@
         <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5118,7 +5244,7 @@
         <v>110</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -5132,7 +5258,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5146,12 +5272,12 @@
         <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
@@ -5173,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42B447-B130-4A1D-A4FF-9CCF0739C487}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5191,7 +5317,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5241,7 +5367,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -5255,7 +5381,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5269,7 +5395,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -5283,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -5297,7 +5423,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5340,12 +5466,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1597F3-05EF-40CB-B88F-46EDBB3160AE}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5358,7 +5484,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -5435,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5446,10 +5572,10 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>166</v>
+        <v>223</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -5473,7 +5599,168 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA5BB90-2016-4700-8137-54B3F646F74A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -5491,7 +5778,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5547,12 +5834,12 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -5562,173 +5849,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
-  <dimension ref="A1:F9"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5741,7 +5867,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -5811,27 +5937,32 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>177</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -5842,13 +5973,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -5860,7 +5989,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -5937,10 +6066,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>301023</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -5961,12 +6090,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF960CA3-A003-4D8E-A931-113F605B8090}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5979,7 +6108,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>167</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6026,24 +6155,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -6057,21 +6186,21 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -6085,21 +6214,21 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -6113,21 +6242,21 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -6141,21 +6270,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -6169,21 +6298,21 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -6197,21 +6326,21 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -6225,26 +6354,26 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -6258,7 +6387,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -6272,7 +6401,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -6282,12 +6411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6300,7 +6429,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6356,7 +6485,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -6370,7 +6499,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -6384,7 +6513,7 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -6398,7 +6527,7 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -6412,7 +6541,7 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -6426,7 +6555,7 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -6440,38 +6569,165 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" t="s">
-        <v>216</v>
-      </c>
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF68C27-7EF6-496F-8834-519F87F946A0}">
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="47.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -6482,10 +6738,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A1D2-D6EB-4ADC-AC1E-9B15984B6922}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6568,28 +6824,19 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
       <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6597,19 +6844,34 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6735,10 +6997,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED7BE9F8-36EC-46EB-8431-ABB2D7455048}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6891,6 +7153,11 @@
         <v>71</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6903,7 +7170,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7120,7 +7387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ECF44DB-D857-4316-951C-DED6934ACDFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44F007-EC96-4053-B773-8B30F82B899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="11" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="12" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -2347,7 +2347,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="252">
   <si>
     <t>이름</t>
   </si>
@@ -3213,6 +3213,118 @@
   </si>
   <si>
     <t>dialogue_ep3/301022_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우와 오운, 그리고 스핏이 셋이서 모여있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오운은 낯을 가리고 있고, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 오운을 매우 경계하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사이에 껴있는 라우는 불편해 죽을 맛이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄…오운 인사해… 이쪽은 내가 도와달라고 한 스핏이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏, 이쪽은 학교에서 인권운동하고 있는 오운이라고 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…안녕하세요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네…뭐…안녕하세요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보니까 부잣집 아들래미 같은데,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹여나 알량한 동정심때문에 온거면 사양할께요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 평소보다 굉장히 예민한 모습을 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…어…스핏 오운은 그런 애가 아니야…물론 너의 심정이 이해는 가지만 정말 돕고싶어서 온 친구야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아요…단순히 제가 제 자존감 채우려고 이러는 거 아니에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 대충 간단하게 들었는데 심각한 것 같아서 제가 할 수 있는 한 최대한 돕고 싶어요. 진심이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏, 나야 어느정도 너의 이야기를 듣긴 했지만…혹시 더 자세하게 너의 이야기를 들을 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 정적이 일었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러다 스핏은 다시 입을 열었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 모든 일은 제 어렸을 때부터 시작했다고 생각해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 많이 우울할 수 있지만, 솔직하게 이야기하는게 도움이 될 테니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렸을 때 저는…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저 혼자 해결할 수 있는 일은 아닐 거라 생각해서 여기 활동가 분도 데려왔어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 오운 어머니께서 과거 힘든 사람들을 도왔던 적이 있기도 하고 오운이 그런 거에 관심이 많아서 큰 도움이 될 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 이나라고 합니다. 반성착취 활동가에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운님이랑 예전부터  같이 얘기 나눠왔고 진심으로 성착취가 없어지길 바라는 분이라 믿으셔도 될거에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저도 제가 되는 한 최선을 다해드릴꺼구요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 오운과 이나의 진심어린 말을 듣고 아까보다 경계를 풀었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4533,7 +4645,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6095,7 +6207,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6611,10 +6723,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF68C27-7EF6-496F-8834-519F87F946A0}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6673,66 +6785,301 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D6" s="1"/>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D7" s="1"/>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D9" s="1"/>
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D11" s="1"/>
+      <c r="A11" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" s="1"/>
+      <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" s="1"/>
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" s="1"/>
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" s="1"/>
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D23" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>185</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>246</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>246</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D24" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D27" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D28" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>110</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>110</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC44F007-EC96-4053-B773-8B30F82B899F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1BCE9-9F87-475B-A563-7A9964A47767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="12" activeTab="13" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="15" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -21,23 +21,26 @@
     <sheet name="301010_choice2" sheetId="5" r:id="rId6"/>
     <sheet name="301010_live" sheetId="11" r:id="rId7"/>
     <sheet name="301011" sheetId="7" r:id="rId8"/>
-    <sheet name="301011_interact" sheetId="12" r:id="rId9"/>
-    <sheet name="301020" sheetId="9" r:id="rId10"/>
-    <sheet name="301021_choice" sheetId="13" r:id="rId11"/>
-    <sheet name="301021" sheetId="10" r:id="rId12"/>
-    <sheet name="301021_1" sheetId="14" r:id="rId13"/>
-    <sheet name="301021_task34" sheetId="26" r:id="rId14"/>
-    <sheet name="301021_1_" sheetId="16" r:id="rId15"/>
-    <sheet name="301021_2" sheetId="15" r:id="rId16"/>
-    <sheet name="301021_2_" sheetId="17" r:id="rId17"/>
-    <sheet name="301021_fail" sheetId="21" r:id="rId18"/>
-    <sheet name="301021_3" sheetId="19" r:id="rId19"/>
-    <sheet name="301021_3_" sheetId="22" r:id="rId20"/>
-    <sheet name="301021_4" sheetId="20" r:id="rId21"/>
-    <sheet name="301022_success" sheetId="24" r:id="rId22"/>
-    <sheet name="301022" sheetId="18" r:id="rId23"/>
-    <sheet name="301021_4_" sheetId="23" r:id="rId24"/>
-    <sheet name="301023" sheetId="25" r:id="rId25"/>
+    <sheet name="301011_task" sheetId="29" r:id="rId9"/>
+    <sheet name="301011_endTask" sheetId="30" r:id="rId10"/>
+    <sheet name="301011_end" sheetId="28" r:id="rId11"/>
+    <sheet name="301011_interact" sheetId="12" r:id="rId12"/>
+    <sheet name="301020" sheetId="9" r:id="rId13"/>
+    <sheet name="301021_choice" sheetId="13" r:id="rId14"/>
+    <sheet name="301021" sheetId="10" r:id="rId15"/>
+    <sheet name="301021_1" sheetId="14" r:id="rId16"/>
+    <sheet name="301021_task" sheetId="26" r:id="rId17"/>
+    <sheet name="301021_1_" sheetId="16" r:id="rId18"/>
+    <sheet name="301021_2" sheetId="15" r:id="rId19"/>
+    <sheet name="301021_2_" sheetId="17" r:id="rId20"/>
+    <sheet name="301021_fail" sheetId="21" r:id="rId21"/>
+    <sheet name="301021_3" sheetId="19" r:id="rId22"/>
+    <sheet name="301021_3_" sheetId="22" r:id="rId23"/>
+    <sheet name="301021_4" sheetId="20" r:id="rId24"/>
+    <sheet name="301022_success" sheetId="24" r:id="rId25"/>
+    <sheet name="301022" sheetId="18" r:id="rId26"/>
+    <sheet name="301023" sheetId="25" r:id="rId27"/>
+    <sheet name="301021_4_" sheetId="23" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -94,207 +97,30 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BEC22822-020D-4DE4-A604-18319AE9E6C2}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B4B71EA5-071B-428C-BCA6-C0E6CF12CB86}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeOut = 9
-Cinematic = 10
-TempDialogueEnd = 99</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -308,7 +134,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B87F5399-5FE7-4A88-8294-1FE4572DC50E}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2A4168A3-0B44-474F-9D30-8E111FB29239}">
       <text>
         <r>
           <rPr>
@@ -343,7 +169,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3323092F-88EB-47CE-A568-7FFCE3FA0D1A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BEC22822-020D-4DE4-A604-18319AE9E6C2}">
       <text>
         <r>
           <rPr>
@@ -362,13 +188,14 @@
 NEW = 6
 THEEND = 7
 Play = 8
-FadeOut = 9
-Cinematic = 10
-TempDialogueEnd = 99</t>
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D29E8183-26F5-4C51-95BA-714DB3829C66}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
       <text>
         <r>
           <rPr>
@@ -550,221 +377,10 @@
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CBCC1FF-1058-49A5-BD77-6ABC91706C57}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeOut = 9
-Cinematic = 10
-TempDialogueEnd = 99</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A2BDC32D-DFC6-42F1-9A60-F2AC4C052049}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B87F5399-5FE7-4A88-8294-1FE4572DC50E}">
       <text>
         <r>
           <rPr>
@@ -792,13 +408,252 @@
 </comments>
 </file>
 
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6AA2BF6C-6489-4940-8B69-697BC429460A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D29E8183-26F5-4C51-95BA-714DB3829C66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{EE37F4CC-03AB-49B1-8C60-F30CB146E610}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A2BDC32D-DFC6-42F1-9A60-F2AC4C052049}">
       <text>
         <r>
           <rPr>
@@ -983,7 +838,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
       <text>
         <r>
           <rPr>
@@ -1017,27 +872,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1051,178 +1057,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -1236,7 +1091,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
       <text>
         <r>
           <rPr>
@@ -1491,7 +1346,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
       <text>
         <r>
           <rPr>
@@ -1676,192 +1531,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
       <text>
         <r>
           <rPr>
@@ -1882,6 +1552,218 @@
 7: Suspicion
 8: Fear
 9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0C2EF7E0-01DF-47EF-9EEA-BCC8CDBF4CA8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1895,27 +1777,178 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1929,7 +1962,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{001699A4-C77F-4C26-B0AB-A5F1E85B2554}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
       <text>
         <r>
           <rPr>
@@ -1957,13 +1990,108 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments25.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{0AAF2F1C-B410-4B18-AC92-9ADB3F8D6741}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{001699A4-C77F-4C26-B0AB-A5F1E85B2554}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E1EF740-7B0E-413B-AB45-15A50E13DBAC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{0AAF2F1C-B410-4B18-AC92-9ADB3F8D6741}">
       <text>
         <r>
           <rPr>
@@ -2281,30 +2409,217 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B4B71EA5-071B-428C-BCA6-C0E6CF12CB86}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D0236C79-C3EF-4BAF-81C3-7B9169FAC6ED}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeOut = 9
+Cinematic = 10
+TempDialogueEnd = 99</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3D47BA50-B2DE-4B01-A244-8C00D343BDE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -2318,7 +2633,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2A4168A3-0B44-474F-9D30-8E111FB29239}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CA8C09A5-436B-4663-97CD-C56A95989718}">
       <text>
         <r>
           <rPr>
@@ -2347,7 +2662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="271">
   <si>
     <t>이름</t>
   </si>
@@ -3325,6 +3640,80 @@
   </si>
   <si>
     <t>스핏은 오운과 이나의 진심어린 말을 듣고 아까보다 경계를 풀었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야…여기…어제 나갔으면 하마터면 큰일날 뻔 했잖아..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…여러모로 위험한데다가, 외지인이라고 차별이나 당하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 경험하려고 왔는데 오히려 더 안 좋은 것들만 경험한 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 빨리 떠나야겠다. 여기는 아닌 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 바로 숙소로 가서 짐을 싸고 바로 세모마을을 떠났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 앞으로도 세모마을을 올 것 같아 보이진 않는 라우였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over&lt;최악의 여행&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301011_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기를 다시 자세히 들어본다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301011_interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301011_endTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301011_endTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/301011_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301011_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,m3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자2</t>
+  </si>
+  <si>
+    <t>와…무섭다…</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3904,6 +4293,474 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649E80ED-4B99-4996-8CD0-4C4C56E68A53}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="22.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>265</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90790891-810E-4600-B220-CD44B19C2443}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D18" s="1" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D19" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D870B-0FB1-4100-AD6E-58FFC9D6293E}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" customWidth="1"/>
+    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591E7969-7DD3-4222-843D-92BBB12EA8EC}">
   <dimension ref="A1:D15"/>
   <sheetViews>
@@ -4082,12 +4939,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBCAD39-DA3A-42C3-BC98-7B0196DAE677}">
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4242,7 +5099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80978C3B-89B3-4A93-97E0-E5F6A8C6A833}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -4518,12 +5375,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30FBE132-5EE2-48DF-BEF8-3AF387A4FB38}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4619,19 +5476,6 @@
         <v>301022</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4640,12 +5484,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B735065-E9DF-44C9-8F27-0ECDE1230632}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4792,14 +5636,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4807,7 +5643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9DC9729-32A2-4D45-B515-782DB9505E5C}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5037,12 +5873,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5050,7 +5886,7 @@
     <col min="1" max="1" width="24.5" customWidth="1"/>
     <col min="2" max="2" width="20.08203125" customWidth="1"/>
     <col min="3" max="3" width="29.83203125" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="23.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -5149,17 +5985,6 @@
         <v>223</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -5170,7 +5995,157 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE0A645-0D18-49AB-A0D5-E7F84AF1CE91}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5411,7 +6386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C42B447-B130-4A1D-A4FF-9CCF0739C487}">
   <dimension ref="A1:D20"/>
   <sheetViews>
@@ -5578,12 +6553,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1597F3-05EF-40CB-B88F-46EDBB3160AE}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="D7" sqref="A7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5693,17 +6668,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5711,173 +6675,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D66D303E-6C3F-4129-91D7-A0A1A06093F3}">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="37.33203125" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="27.9140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CA5BB90-2016-4700-8137-54B3F646F74A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5961,12 +6764,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6050,7 +6853,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -6085,7 +6888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -6202,7 +7005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF960CA3-A003-4D8E-A931-113F605B8090}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -6523,205 +7326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF68C27-7EF6-496F-8834-519F87F946A0}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -7083,12 +7688,210 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A1D2-D6EB-4ADC-AC1E-9B15984B6922}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7172,7 +7975,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -7227,7 +8030,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7514,10 +8317,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B259E60-0D7E-4D02-853E-E90F811ADCF6}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7595,17 +8398,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7617,7 +8409,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7734,9 +8526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -7840,148 +8630,175 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{467D870B-0FB1-4100-AD6E-58FFC9D6293E}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6DEA9F-5636-48B0-9094-02C2D4914ED0}">
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.75" customWidth="1"/>
-    <col min="2" max="2" width="17.75" customWidth="1"/>
-    <col min="3" max="3" width="20.58203125" customWidth="1"/>
-    <col min="4" max="4" width="45.9140625" customWidth="1"/>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="20.08203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>261</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+        <v>263</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>261</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>261</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>262</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF1BCE9-9F87-475B-A563-7A9964A47767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF6C8BE-EB14-4F74-B295-935A41CA7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="15" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
@@ -3514,9 +3514,6 @@
     <t>301023</t>
   </si>
   <si>
-    <t>301021_task34</t>
-  </si>
-  <si>
     <t>301021_1</t>
   </si>
   <si>
@@ -3715,6 +3712,9 @@
   <si>
     <t>와…무섭다…</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_task</t>
   </si>
 </sst>
 </file>
@@ -4297,7 +4297,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4310,7 +4310,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4374,7 +4374,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4415,7 +4415,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4503,7 +4503,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -4516,7 +4516,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>97</v>
@@ -4541,7 +4541,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -4555,7 +4555,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -4569,7 +4569,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -4583,22 +4583,22 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -5393,7 +5393,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -5489,7 +5489,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5502,7 +5502,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -5982,7 +5982,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6662,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6904,7 +6904,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -7023,7 +7023,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7391,7 +7391,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -7402,7 +7402,7 @@
         <v>185</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -7413,12 +7413,12 @@
         <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -7432,12 +7432,12 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -7451,7 +7451,7 @@
         <v>185</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -7465,7 +7465,7 @@
         <v>110</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -7479,7 +7479,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -7493,7 +7493,7 @@
         <v>110</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -7507,12 +7507,12 @@
         <v>110</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -7526,7 +7526,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
@@ -7540,7 +7540,7 @@
         <v>185</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -7554,7 +7554,7 @@
         <v>185</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -7568,36 +7568,36 @@
         <v>185</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -7611,7 +7611,7 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
@@ -7625,17 +7625,17 @@
         <v>110</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
@@ -7649,7 +7649,7 @@
         <v>110</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
@@ -7663,7 +7663,7 @@
         <v>110</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
@@ -7677,7 +7677,7 @@
         <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -7693,7 +7693,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8634,12 +8634,12 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="30.9140625" customWidth="1"/>
     <col min="2" max="2" width="20.08203125" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
@@ -8647,7 +8647,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -8724,7 +8724,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8743,19 +8743,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F7" t="s">
         <v>35</v>
@@ -8763,19 +8763,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -8783,13 +8783,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D9">
         <v>1</v>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF6C8BE-EB14-4F74-B295-935A41CA7A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141A5327-8DC5-4D7A-A65D-958C2F55207B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="15" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="15" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -2662,7 +2662,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="272">
   <si>
     <t>이름</t>
   </si>
@@ -3715,6 +3715,10 @@
   </si>
   <si>
     <t>301021_task</t>
+  </si>
+  <si>
+    <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4944,7 +4948,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5008,7 +5012,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -5447,7 +5451,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -5489,7 +5493,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5556,7 +5560,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -6558,7 +6562,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A7:D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6625,7 +6629,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -6768,8 +6772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6836,7 +6840,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -6892,7 +6896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -6958,7 +6964,7 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>271</v>
       </c>
       <c r="C4" t="s">
         <v>24</v>
@@ -7692,7 +7698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141A5327-8DC5-4D7A-A65D-958C2F55207B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D84EDA3-B5A3-4F6F-BE77-561BF39A007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="15" activeTab="23" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="14" activeTab="18" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -37,10 +37,10 @@
     <sheet name="301021_3" sheetId="19" r:id="rId22"/>
     <sheet name="301021_3_" sheetId="22" r:id="rId23"/>
     <sheet name="301021_4" sheetId="20" r:id="rId24"/>
-    <sheet name="301022_success" sheetId="24" r:id="rId25"/>
-    <sheet name="301022" sheetId="18" r:id="rId26"/>
-    <sheet name="301023" sheetId="25" r:id="rId27"/>
-    <sheet name="301021_4_" sheetId="23" r:id="rId28"/>
+    <sheet name="301021_4_" sheetId="23" r:id="rId25"/>
+    <sheet name="301022_success" sheetId="24" r:id="rId26"/>
+    <sheet name="301022" sheetId="18" r:id="rId27"/>
+    <sheet name="301023" sheetId="25" r:id="rId28"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,79 +97,10 @@
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>훠이</author>
+    <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B4B71EA5-071B-428C-BCA6-C0E6CF12CB86}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2A4168A3-0B44-474F-9D30-8E111FB29239}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>최선</author>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BEC22822-020D-4DE4-A604-18319AE9E6C2}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{68B92B34-64BF-40DC-A9B7-D283A095A656}">
       <text>
         <r>
           <rPr>
@@ -195,178 +126,71 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CA8C09A5-436B-4663-97CD-C56A95989718}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B4B71EA5-071B-428C-BCA6-C0E6CF12CB86}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -380,7 +204,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B87F5399-5FE7-4A88-8294-1FE4572DC50E}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{2A4168A3-0B44-474F-9D30-8E111FB29239}">
       <text>
         <r>
           <rPr>
@@ -415,7 +239,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6AA2BF6C-6489-4940-8B69-697BC429460A}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B50F0AA2-A2D5-479A-B207-B172BA4D43EB}">
       <text>
         <r>
           <rPr>
@@ -441,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D29E8183-26F5-4C51-95BA-714DB3829C66}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{17D1C416-4A3A-4C64-9059-3D83678C6DCC}">
       <text>
         <r>
           <rPr>
@@ -623,11 +447,45 @@
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B87F5399-5FE7-4A88-8294-1FE4572DC50E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
     <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{EE37F4CC-03AB-49B1-8C60-F30CB146E610}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{84BADBAB-821B-443D-A2EE-28AA4FE9B820}">
       <text>
         <r>
           <rPr>
@@ -653,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A2BDC32D-DFC6-42F1-9A60-F2AC4C052049}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{D29E8183-26F5-4C51-95BA-714DB3829C66}">
       <text>
         <r>
           <rPr>
@@ -825,40 +683,6 @@
           </rPr>
           <t xml:space="preserve">자존감
 </t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
         </r>
       </text>
     </comment>
@@ -869,10 +693,37 @@
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{EE37F4CC-03AB-49B1-8C60-F30CB146E610}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{A2BDC32D-DFC6-42F1-9A60-F2AC4C052049}">
       <text>
         <r>
           <rPr>
@@ -1057,7 +908,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{77765083-BF8E-44B1-94DA-2907D196886D}">
       <text>
         <r>
           <rPr>
@@ -1088,30 +939,208 @@
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{06A0D4BE-3037-4C29-927E-356FEED20097}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{9DEA2520-789A-4D18-8D18-E342516107F0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1145,19 +1174,10 @@
 NEW = 6
 THEEND = 7
 Play = 8
-FadeOut = 9
-Cinematic = 10
-TempDialogueEnd = 99</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
         </r>
       </text>
     </comment>
@@ -1346,178 +1366,27 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BFFF32A2-03F1-4B6F-9435-8A0658CFD224}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
         </r>
       </text>
     </comment>
@@ -1531,7 +1400,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{E943598E-BEDF-4D5F-936B-5A8520CBC3C4}">
       <text>
         <r>
           <rPr>
@@ -1566,7 +1435,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{0C2EF7E0-01DF-47EF-9EEA-BCC8CDBF4CA8}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6B616FCF-1013-42E1-A902-25C446FDF82C}">
       <text>
         <r>
           <rPr>
@@ -1592,7 +1461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{68038EA4-2F49-47F1-AFA4-D870AAAB1081}">
       <text>
         <r>
           <rPr>
@@ -1777,192 +1646,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{3D83AF37-9FBB-4B46-98E2-91D014E0B8EB}">
       <text>
         <r>
           <rPr>
@@ -1983,6 +1667,218 @@
 7: Suspicion
 8: Fear
 9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments24.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6B7C7328-8E98-482D-B136-1792CDF9C0CA}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{F7052B51-1441-4670-AF16-C83113033C04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
         </r>
       </text>
     </comment>
@@ -1996,7 +1892,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{001699A4-C77F-4C26-B0AB-A5F1E85B2554}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
       <text>
         <r>
           <rPr>
@@ -2027,10 +1923,256 @@
 <file path=xl/comments26.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{F3773DD3-EE55-4B54-8C49-D38F6609B4F7}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{BBB1B3AB-A1FC-44C2-9DBB-8EB3C5D73A6D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{7AD5C358-C78A-4FCD-81C8-C507A8947AC5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments27.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{6CC4E3A1-433C-4E00-B2DB-4B3B5306202B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>0: Idle
+1: Laugh
+2: Sad
+3: Cry
+4: Angry
+5: Surprise
+6: Panic
+7: Suspicion
+8: Fear
+9: Curious</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments28.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{001699A4-C77F-4C26-B0AB-A5F1E85B2554}">
       <text>
         <r>
           <rPr>
@@ -2065,7 +2207,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{4E1EF740-7B0E-413B-AB45-15A50E13DBAC}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1FED54DA-8E81-46EC-BD38-1DDE18D02D1D}">
       <text>
         <r>
           <rPr>
@@ -2088,6 +2230,16 @@
 FadeOut=10
 Cinematic = 11
 EndingChoice=12</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -2341,30 +2493,32 @@
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>훠이</author>
+    <author>최선</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CAF3BCBA-BA6D-48A1-8273-01136196AE90}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{B1F2938F-0B3A-4E77-86B9-0F7058B950C6}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>0: Idle
-1: Laugh
-2: Sad
-3: Cry
-4: Angry
-5: Surprise
-6: Panic
-7: Suspicion
-8: Fear
-9: Curious</t>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
         </r>
       </text>
     </comment>
@@ -2378,7 +2532,7 @@
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CAF3BCBA-BA6D-48A1-8273-01136196AE90}">
       <text>
         <r>
           <rPr>
@@ -2409,231 +2563,10 @@
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>최선</author>
     <author>훠이</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{D0236C79-C3EF-4BAF-81C3-7B9169FAC6ED}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>NONE = 0
-ANIMATION = 1
-DIALOGUE = 2
-TEMP = 3
-TEMPEND = 4
-TaskReset = 5
-NEW = 6
-THEEND = 7
-Play = 8
-FadeOut = 9
-Cinematic = 10
-TempDialogueEnd = 99</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3D47BA50-B2DE-4B01-A244-8C00D343BDE4}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>1.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스핏</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>2.</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>오운</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">친밀도
-</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">3. </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>라우</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t xml:space="preserve">자존감
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>훠이</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{CA8C09A5-436B-4663-97CD-C56A95989718}">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{1F98B9F6-6E31-4B9C-BEF6-983AFB55DD79}">
       <text>
         <r>
           <rPr>
@@ -2661,8 +2594,220 @@
 </comments>
 </file>
 
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>최선</author>
+    <author>훠이</author>
+  </authors>
+  <commentList>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{790E14D2-9C12-4D13-B696-5852A503D640}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NONE = 0
+ANIMATION = 1
+DIALOGUE = 2
+TEMP = 3
+TEMPEND = 4
+TaskReset = 5
+NEW = 6
+THEEND = 7
+Play = 8
+FadeIn = 9
+FadeOut=10
+Cinematic = 11
+EndingChoice=12</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{3D47BA50-B2DE-4B01-A244-8C00D343BDE4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>스핏</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2.</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오운</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>-</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">친밀도
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">3. </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>라우</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">자존감
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="271">
   <si>
     <t>이름</t>
   </si>
@@ -2736,10 +2881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:TYPE:NONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2748,10 +2889,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nextFile</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2952,772 +3089,777 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>301020</t>
+  </si>
+  <si>
+    <t>301021</t>
+  </si>
+  <si>
+    <t>…괜히 나갔다가 큰일날 수 있으니까….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별일 아니길 바라야지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무서워서 그러는 게 아니야…얼른 자야지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301011_interact</t>
+  </si>
+  <si>
+    <t>여자1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제 그 비명, 그거 사실 누가 죽었던 거래</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그니까 말이야…진짜 무섭다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헉…어제 나갔으면 큰일 날 뻔했네</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지금 골목 입구쪽으로 가면 경찰들 쫙 서있다더라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와…무섭다…근데 왜 죽은 거래…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 빚때문에 쫒겼던 것 같은데…나도 제대로 못들어서..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골목 입구..? 스핏이 있는 쪽인데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼른 나가봐야겠어…!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰들은 사건 구역을 가로막고 있고 사람들은 구경하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세상에…무슨 일이람….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 사람1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니 글쎄, 죽은 사람이 알고보니 원래 업소 여자였대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 사람2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근데 도망쳐서 숨어지내다가 발견됐다며?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모르는 사람3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이고..재수도 없지…근데 왜 죽은 거람?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거 조용히 하시고 다들 돌아가세요!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(설마 스핏 이야기는 아니겠지…???)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏에게 전화해봐야곘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜….뚜…뚜…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연결이 되지 않아…음성…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이런 제길…스핏 집으로 가봐야 겠어..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Speat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나 귀 안먹었어…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 괜찮아? 다친데는 없고..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왜 전화를 안 받아…걱정되게…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…너도 들었구나…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…응…너 걱정되서 바로 찾아왔지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하하, 스윗하네 라우.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웃을 일이 아니잖아 스핏…너는 괜찮은 거지…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…안 괜찮은 것 같아…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사실, 이번에 죽었다는 사람… 내가 아는 사람이야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…!어떻게 아는 사이야..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예전에 일했을 때 같이 일하던 언니야.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 도망치기 전에 먼저 도망친 언닌데, 이렇게 될 줄이야..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나도 이제 저렇게 되는거 아닐까? 나 어떡해…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 눈물을 흘리며 혼란스러워 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그걸 보는 라우도 혼란스러웠지만 일단 스핏을 위로하는 게 우선인 것 같다고 생각을 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301010_choice1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301010_choice2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>똑같이 되지 않도록 도와주겠다고 말한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람이니 너는 괜찮을 것이라고 해준다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_1_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_2_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_1_</t>
+  </si>
+  <si>
+    <t>301021_2</t>
+  </si>
+  <si>
+    <t>301021_2_</t>
+  </si>
+  <si>
+    <t>스핏, 너무 걱정마…저 사람과 아는 사람이라고 해도 일단 다른 사람이잖아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아는 사람이니까 문제지. 나랑 연결고리가 있는거라고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론…그건 그렇지만….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>저 사람이 잡혔다고 하지만 너를 찾는다는 보장은 없잖아 너무 걱정하지말어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>너 바보아냐? 애초에 쟤들은 도망친 사람들은 블랙리스트로 올리고 찾는다고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애초에 내가 그럼 이렇게 꽁꽁싸매고 숨고 지내는 이유가 뭐겠냐고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론…맞는 말이긴 한데….너무 너가 움츠러들지 않았으면 해서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 내가 예민하다? 그래 미안하다. 나 예민하니까 나가줄래?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니…그게 아니..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결국 라우는 나갈 수 밖에 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏….너가 얼마나 두려울지 내가 감히 상상할 수 도 없을 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그런데 기억나? 내가 너랑 같이 도망치겠다는 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그거 진심이었어. 그리고, 도와줄 방법이 있을 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐? 어떻게??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…? 정말로?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 알게 된 친구가 인권동아리 하고 또 어머니가 지금 네모마을에서 성착취 여성 돕는 활동하고 계신대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응응, 뭔가 너가 안전하게 해줄 방법을 찾을 수 있을 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그치만….도망치는것 만이 방법일까…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도망치면…다 괜찮아 지는 것일까..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물론 너무 갑작스러울 거라고 생각해. 한번 생각해봐…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고뇌하는 스핏을 뒤로하고 라우는 오운에게 연락하기로 결심한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_choice</t>
+  </si>
+  <si>
+    <t>위로실패/선택지 제시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운에게 전화를 한다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신경쓰지 말고 갈 길을 간다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_4</t>
+  </si>
+  <si>
+    <t>301021_4</t>
+  </si>
+  <si>
+    <t>301021_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_3_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_fail</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_fail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_4_</t>
+  </si>
+  <si>
+    <t>301021_3_</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301021_4_</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 스핏의 집 밖에 나와 길거리에 서있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 어떻게 하지…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아, 혹시 오운이라면…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하지만 과연 오운이 도와줄까…?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래도 오운이니까…! 오운이라면 분명히 도와줄꺼야!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 핸드폰을 꺼내 전화를 걸었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뚜….뚜.....뚜…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여보세요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운! 나야! 라우!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아~라우! 무슨 일로 전화했어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어… 다름이 아니라…혹시 소문 들었어?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응? 무슨 소문??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이번에 이 동네에서 누가 죽었는데…그게 내 친구랑 관련있거든…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐라고? 무슨 일이야??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>더 자세한 내용은 만나서 하고, 물론 내 친구가 죽였다는 거 아니야. 오히려 반대 상황이야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭔가 굉장히 큰 문제가 생긴 것 같은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응…그래서 너한테 전화했어… 나혼자서는 도와주긴 힘들 것 같아서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알았어. 어디로 가면 될까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운…고마워…진짜로..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아냐 친구끼리 이정도야 뭐!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 위치 찍어줄께 거기로 와줘!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>알겠어!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어차피 내가 괜히 간섭한다고 되겠어..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 괜히 오운 불편하게 만드는 거 같고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운이랑 그렇게 가깝지도 않은데…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….그냥 내 갈 길 가야겠다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘있어 얘들아, 그리고 세모마을…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 그렇게 세모마을을 떠나게 되었고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세모 마을은 아무일이 없었다는 듯이 일상으로 돌아갔고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유일하게 스핏만이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홀로 외로히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두려움에 떨게 되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal Ending &lt;지나가는 나그네&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 전화기를 끊었고, 안도의 한숨을 쉬었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다행이야…스핏을 도울 수 있게 되어서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 할 수 있는 한 최선을 다해서 이 이상한 상황에서 벗어나게 해야겠어.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over&lt;오지랖 엔딩&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나가!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301023</t>
+  </si>
+  <si>
+    <t>301021_1</t>
+  </si>
+  <si>
+    <t>301022_success</t>
+  </si>
+  <si>
+    <t>301022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301022_success</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우와 오운, 그리고 스핏이 셋이서 모여있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">오운은 낯을 가리고 있고, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 오운을 매우 경계하고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그 사이에 껴있는 라우는 불편해 죽을 맛이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄…오운 인사해… 이쪽은 내가 도와달라고 한 스핏이고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏, 이쪽은 학교에서 인권운동하고 있는 오운이라고 해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…안녕하세요…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네…뭐…안녕하세요..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보니까 부잣집 아들래미 같은데,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹여나 알량한 동정심때문에 온거면 사양할께요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 평소보다 굉장히 예민한 모습을 보인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어…어…스핏 오운은 그런 애가 아니야…물론 너의 심정이 이해는 가지만 정말 돕고싶어서 온 친구야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞아요…단순히 제가 제 자존감 채우려고 이러는 거 아니에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아까 대충 간단하게 들었는데 심각한 것 같아서 제가 할 수 있는 한 최대한 돕고 싶어요. 진심이에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏, 나야 어느정도 너의 이야기를 듣긴 했지만…혹시 더 자세하게 너의 이야기를 들을 수 있을까?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>….하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잠시 정적이 일었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그러다 스핏은 다시 입을 열었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이 모든 일은 제 어렸을 때부터 시작했다고 생각해요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좀 많이 우울할 수 있지만, 솔직하게 이야기하는게 도움이 될 테니까.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어렸을 때 저는…..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저 혼자 해결할 수 있는 일은 아닐 거라 생각해서 여기 활동가 분도 데려왔어요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일단 오운 어머니께서 과거 힘든 사람들을 도왔던 적이 있기도 하고 오운이 그런 거에 관심이 많아서 큰 도움이 될 거야</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안녕하세요, 이나라고 합니다. 반성착취 활동가에요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오운님이랑 예전부터  같이 얘기 나눠왔고 진심으로 성착취가 없어지길 바라는 분이라 믿으셔도 될거에요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 저도 제가 되는 한 최선을 다해드릴꺼구요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스핏은 오운과 이나의 진심어린 말을 듣고 아까보다 경계를 풀었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뭐야…여기…어제 나갔으면 하마터면 큰일날 뻔 했잖아..?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>…여러모로 위험한데다가, 외지인이라고 차별이나 당하고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋은 경험하려고 왔는데 오히려 더 안 좋은 것들만 경험한 것 같아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그냥 빨리 떠나야겠다. 여기는 아닌 것 같다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우는 바로 숙소로 가서 짐을 싸고 바로 세모마을을 떠났다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아마 앞으로도 세모마을을 올 것 같아 보이진 않는 라우였다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Game Over&lt;최악의 여행&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301011_task</t>
+  </si>
+  <si>
+    <t>dialogue_ep3/301011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이야기를 다시 자세히 들어본다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301011_interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep3/301011_endTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301011_endTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dialogue_ep2/301011_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301011_end</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3,0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0,m3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자2</t>
+  </si>
+  <si>
+    <t>와…무섭다…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>301021_task</t>
+  </si>
+  <si>
+    <t>taskContentType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum:TaskContentType:NONE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>301011</t>
-  </si>
-  <si>
-    <t>301020</t>
-  </si>
-  <si>
-    <t>301021</t>
-  </si>
-  <si>
-    <t>…괜히 나갔다가 큰일날 수 있으니까….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별일 아니길 바라야지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>무서워서 그러는 게 아니야…얼른 자야지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301011_interact</t>
-  </si>
-  <si>
-    <t>여자1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여자2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어제 그 비명, 그거 사실 누가 죽었던 거래</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그니까 말이야…진짜 무섭다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>헉…어제 나갔으면 큰일 날 뻔했네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지금 골목 입구쪽으로 가면 경찰들 쫙 서있다더라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와…무섭다…근데 왜 죽은 거래…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 빚때문에 쫒겼던 것 같은데…나도 제대로 못들어서..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>골목 입구..? 스핏이 있는 쪽인데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>얼른 나가봐야겠어…!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰들은 사건 구역을 가로막고 있고 사람들은 구경하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세상에…무슨 일이람….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는 사람1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니 글쎄, 죽은 사람이 알고보니 원래 업소 여자였대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는 사람2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근데 도망쳐서 숨어지내다가 발견됐다며?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모르는 사람3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이고..재수도 없지…근데 왜 죽은 거람?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>경찰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>거 조용히 하시고 다들 돌아가세요!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(설마 스핏 이야기는 아니겠지…???)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏에게 전화해봐야곘다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚜….뚜…뚜…..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>휴대폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연결이 되지 않아…음성…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이런 제길…스핏 집으로 가봐야 겠어..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나 귀 안먹었어…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너 괜찮아? 다친데는 없고..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜 전화를 안 받아…걱정되게…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…너도 들었구나…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…응…너 걱정되서 바로 찾아왔지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하하, 스윗하네 라우.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>웃을 일이 아니잖아 스핏…너는 괜찮은 거지…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…안 괜찮은 것 같아…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사실, 이번에 죽었다는 사람… 내가 아는 사람이야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…!어떻게 아는 사이야..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>예전에 일했을 때 같이 일하던 언니야.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 도망치기 전에 먼저 도망친 언닌데, 이렇게 될 줄이야..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나도 이제 저렇게 되는거 아닐까? 나 어떡해…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏은 눈물을 흘리며 혼란스러워 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그걸 보는 라우도 혼란스러웠지만 일단 스핏을 위로하는 게 우선인 것 같다고 생각을 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301010_choice1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301010_choice2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>똑같이 되지 않도록 도와주겠다고 말한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 사람이니 너는 괜찮을 것이라고 해준다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_1_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_2_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_1_</t>
-  </si>
-  <si>
-    <t>301021_2</t>
-  </si>
-  <si>
-    <t>301021_2_</t>
-  </si>
-  <si>
-    <t>스핏, 너무 걱정마…저 사람과 아는 사람이라고 해도 일단 다른 사람이잖아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아는 사람이니까 문제지. 나랑 연결고리가 있는거라고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론…그건 그렇지만….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>저 사람이 잡혔다고 하지만 너를 찾는다는 보장은 없잖아 너무 걱정하지말어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>너 바보아냐? 애초에 쟤들은 도망친 사람들은 블랙리스트로 올리고 찾는다고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>애초에 내가 그럼 이렇게 꽁꽁싸매고 숨고 지내는 이유가 뭐겠냐고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론…맞는 말이긴 한데….너무 너가 움츠러들지 않았으면 해서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 내가 예민하다? 그래 미안하다. 나 예민하니까 나가줄래?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니…그게 아니..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결국 라우는 나갈 수 밖에 없었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏….너가 얼마나 두려울지 내가 감히 상상할 수 도 없을 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그런데 기억나? 내가 너랑 같이 도망치겠다는 말</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그거 진심이었어. 그리고, 도와줄 방법이 있을 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐? 어떻게??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…? 정말로?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에 알게 된 친구가 인권동아리 하고 또 어머니가 지금 네모마을에서 성착취 여성 돕는 활동하고 계신대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응응, 뭔가 너가 안전하게 해줄 방법을 찾을 수 있을 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그치만….도망치는것 만이 방법일까…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>도망치면…다 괜찮아 지는 것일까..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물론 너무 갑작스러울 거라고 생각해. 한번 생각해봐…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠어….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고뇌하는 스핏을 뒤로하고 라우는 오운에게 연락하기로 결심한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_choice</t>
-  </si>
-  <si>
-    <t>위로실패/선택지 제시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운에게 전화를 한다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신경쓰지 말고 갈 길을 간다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_4</t>
-  </si>
-  <si>
-    <t>301021_4</t>
-  </si>
-  <si>
-    <t>301021_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_3_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_fail</t>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_4_</t>
-  </si>
-  <si>
-    <t>301021_3_</t>
-  </si>
-  <si>
-    <t>dialogue_ep3/301021_4_</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 스핏의 집 밖에 나와 길거리에 서있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이제 어떻게 하지…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아, 혹시 오운이라면…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하지만 과연 오운이 도와줄까…?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래도 오운이니까…! 오운이라면 분명히 도와줄꺼야!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 핸드폰을 꺼내 전화를 걸었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뚜….뚜.....뚜…..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>핸드폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여보세요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운! 나야! 라우!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아~라우! 무슨 일로 전화했어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어… 다름이 아니라…혹시 소문 들었어?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응? 무슨 소문??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이번에 이 동네에서 누가 죽었는데…그게 내 친구랑 관련있거든…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐라고? 무슨 일이야??</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>더 자세한 내용은 만나서 하고, 물론 내 친구가 죽였다는 거 아니야. 오히려 반대 상황이야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭔가 굉장히 큰 문제가 생긴 것 같은데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>응…그래서 너한테 전화했어… 나혼자서는 도와주긴 힘들 것 같아서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알았어. 어디로 가면 될까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운…고마워…진짜로..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아냐 친구끼리 이정도야 뭐!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 위치 찍어줄께 거기로 와줘!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>알겠어!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어차피 내가 괜히 간섭한다고 되겠어..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 괜히 오운 불편하게 만드는 거 같고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운이랑 그렇게 가깝지도 않은데…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….그냥 내 갈 길 가야겠다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘있어 얘들아, 그리고 세모마을…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 그렇게 세모마을을 떠나게 되었고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>세모 마을은 아무일이 없었다는 듯이 일상으로 돌아갔고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>유일하게 스핏만이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홀로 외로히</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두려움에 떨게 되었습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Normal Ending &lt;지나가는 나그네&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 전화기를 끊었고, 안도의 한숨을 쉬었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다행이야…스핏을 도울 수 있게 되어서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내가 할 수 있는 한 최선을 다해서 이 이상한 상황에서 벗어나게 해야겠어.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Over&lt;오지랖 엔딩&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나가!!!!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301023</t>
-  </si>
-  <si>
-    <t>301021_1</t>
-  </si>
-  <si>
-    <t>301022_success</t>
-  </si>
-  <si>
-    <t>301022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301022_success</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우와 오운, 그리고 스핏이 셋이서 모여있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">오운은 낯을 가리고 있고, </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏은 오운을 매우 경계하고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 사이에 껴있는 라우는 불편해 죽을 맛이다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄…오운 인사해… 이쪽은 내가 도와달라고 한 스핏이고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏, 이쪽은 학교에서 인권운동하고 있는 오운이라고 해</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어…안녕하세요…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>네…뭐…안녕하세요..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보니까 부잣집 아들래미 같은데,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>혹여나 알량한 동정심때문에 온거면 사양할께요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏은 평소보다 굉장히 예민한 모습을 보인다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어…어…스핏 오운은 그런 애가 아니야…물론 너의 심정이 이해는 가지만 정말 돕고싶어서 온 친구야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맞아요…단순히 제가 제 자존감 채우려고 이러는 거 아니에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아까 대충 간단하게 들었는데 심각한 것 같아서 제가 할 수 있는 한 최대한 돕고 싶어요. 진심이에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏, 나야 어느정도 너의 이야기를 듣긴 했지만…혹시 더 자세하게 너의 이야기를 들을 수 있을까?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>….하</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잠시 정적이 일었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그러다 스핏은 다시 입을 열었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이 모든 일은 제 어렸을 때부터 시작했다고 생각해요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좀 많이 우울할 수 있지만, 솔직하게 이야기하는게 도움이 될 테니까.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어렸을 때 저는…..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 저 혼자 해결할 수 있는 일은 아닐 거라 생각해서 여기 활동가 분도 데려왔어요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이나</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일단 오운 어머니께서 과거 힘든 사람들을 도왔던 적이 있기도 하고 오운이 그런 거에 관심이 많아서 큰 도움이 될 거야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안녕하세요, 이나라고 합니다. 반성착취 활동가에요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오운님이랑 예전부터  같이 얘기 나눠왔고 진심으로 성착취가 없어지길 바라는 분이라 믿으셔도 될거에요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 저도 제가 되는 한 최선을 다해드릴꺼구요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스핏은 오운과 이나의 진심어린 말을 듣고 아까보다 경계를 풀었다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>뭐야…여기…어제 나갔으면 하마터면 큰일날 뻔 했잖아..?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>…여러모로 위험한데다가, 외지인이라고 차별이나 당하고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>좋은 경험하려고 왔는데 오히려 더 안 좋은 것들만 경험한 것 같아</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그냥 빨리 떠나야겠다. 여기는 아닌 것 같다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>라우는 바로 숙소로 가서 짐을 싸고 바로 세모마을을 떠났다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아마 앞으로도 세모마을을 올 것 같아 보이진 않는 라우였다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Game Over&lt;최악의 여행&gt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301011_task</t>
-  </si>
-  <si>
-    <t>dialogue_ep3/301011</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이야기를 다시 자세히 들어본다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301011_interact</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep3/301011_endTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301011_endTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dialogue_ep2/301011_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301011_end</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m3,0,0,0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0,0,m3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여자2</t>
-  </si>
-  <si>
-    <t>와…무섭다…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>301021_task</t>
-  </si>
-  <si>
-    <t>taskContentType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4115,7 +4257,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4127,7 +4269,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
@@ -4174,20 +4316,20 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -4201,7 +4343,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -4215,7 +4357,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -4230,22 +4372,22 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="D12" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -4260,7 +4402,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1"/>
     </row>
@@ -4275,7 +4417,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -4297,11 +4439,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649E80ED-4B99-4996-8CD0-4C4C56E68A53}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649E80ED-4B99-4996-8CD0-4C4C56E68A53}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4314,13 +4456,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4342,27 +4484,27 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -4372,13 +4514,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -4386,7 +4528,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -4398,6 +4540,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4419,7 +4562,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4466,18 +4609,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4491,47 +4634,47 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -4545,7 +4688,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -4559,7 +4702,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -4573,7 +4716,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -4587,22 +4730,22 @@
         <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D17" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D18" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4630,7 +4773,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4677,18 +4820,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -4702,31 +4845,31 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4740,7 +4883,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4754,7 +4897,7 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -4782,7 +4925,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -4829,7 +4972,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -4843,39 +4986,39 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -4889,7 +5032,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -4903,23 +5046,23 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -4933,7 +5076,7 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4948,7 +5091,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4961,7 +5104,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -4992,13 +5135,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -5009,33 +5152,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5054,36 +5197,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -5121,7 +5264,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5177,21 +5320,21 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5205,7 +5348,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -5219,21 +5362,21 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -5247,21 +5390,21 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -5275,35 +5418,35 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -5317,59 +5460,59 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B18">
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D19" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D20" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -5384,7 +5527,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5397,13 +5540,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5431,13 +5574,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -5448,33 +5591,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D5">
         <v>301022</v>
@@ -5493,7 +5636,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5506,13 +5649,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5540,13 +5683,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -5557,33 +5700,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5602,42 +5745,42 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -5665,7 +5808,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -5721,21 +5864,21 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -5749,7 +5892,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -5763,35 +5906,35 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -5805,21 +5948,21 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>4</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -5833,26 +5976,26 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -5881,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5895,13 +6038,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -5929,13 +6072,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -5946,33 +6089,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -5980,13 +6123,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6004,7 +6147,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6016,7 +6159,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
@@ -6047,13 +6190,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -6064,33 +6207,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6109,36 +6252,36 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6167,7 +6310,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6223,7 +6366,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -6237,7 +6380,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -6251,21 +6394,21 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -6279,21 +6422,21 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -6307,35 +6450,35 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -6349,26 +6492,26 @@
         <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.45">
@@ -6395,7 +6538,7 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6408,7 +6551,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6458,7 +6601,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -6472,7 +6615,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -6486,7 +6629,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -6500,7 +6643,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -6514,7 +6657,7 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -6562,7 +6705,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6575,13 +6718,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6609,13 +6752,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -6626,33 +6769,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -6660,13 +6803,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6697,7 +6840,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -6753,12 +6896,12 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -6772,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6786,13 +6929,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6820,13 +6963,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -6837,22 +6980,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -6862,13 +7005,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -6876,7 +7019,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>7</v>
@@ -6893,11 +7036,209 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.08203125" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="39.4140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D12" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D14" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="D16" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7783EF-22DE-4DE6-B71A-88FBE270A0DD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6910,13 +7251,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -6944,13 +7285,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -6961,33 +7302,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D5">
         <v>301023</v>
@@ -6995,7 +7336,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -7011,7 +7352,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF960CA3-A003-4D8E-A931-113F605B8090}">
   <dimension ref="A1:D23"/>
   <sheetViews>
@@ -7029,7 +7370,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7076,24 +7417,24 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -7107,21 +7448,21 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -7135,21 +7476,21 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -7163,21 +7504,21 @@
         <v>12</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -7191,21 +7532,21 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
@@ -7219,21 +7560,21 @@
         <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -7247,21 +7588,21 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
@@ -7275,26 +7616,26 @@
         <v>12</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D21" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
@@ -7308,7 +7649,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
@@ -7322,7 +7663,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -7332,7 +7673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF68C27-7EF6-496F-8834-519F87F946A0}">
   <dimension ref="A1:D31"/>
   <sheetViews>
@@ -7350,7 +7691,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -7397,7 +7738,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -7405,10 +7746,10 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -7416,15 +7757,15 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D8" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -7438,40 +7779,40 @@
         <v>12</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D10" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B12">
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
@@ -7485,40 +7826,40 @@
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B14">
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D16" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.45">
@@ -7532,78 +7873,78 @@
         <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B18">
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
+        <v>242</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>245</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D24" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.45">
@@ -7617,73 +7958,73 @@
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D27" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D28" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -7694,210 +8035,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00F1E8E6-A7BD-45FE-99CF-094280C63F1D}">
-  <dimension ref="A1:D17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="11.08203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="39.4140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D12" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="D16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A1D2-D6EB-4ADC-AC1E-9B15984B6922}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -7910,13 +8053,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -7944,13 +8087,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -7961,22 +8104,22 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -7986,13 +8129,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8000,13 +8143,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -8014,7 +8157,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -8049,7 +8192,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8096,7 +8239,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -8110,7 +8253,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -8124,7 +8267,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -8138,7 +8281,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -8169,7 +8312,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8216,7 +8359,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D5" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -8230,7 +8373,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -8244,7 +8387,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -8258,12 +8401,12 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -8277,12 +8420,12 @@
         <v>12</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D11" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.45">
@@ -8296,22 +8439,22 @@
         <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D14" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D15" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -8322,11 +8465,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B259E60-0D7E-4D02-853E-E90F811ADCF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B259E60-0D7E-4D02-853E-E90F811ADCF6}">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:D6"/>
+      <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8339,13 +8482,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8367,38 +8510,38 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8407,6 +8550,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8415,7 +8559,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8428,7 +8572,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8484,7 +8628,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
@@ -8498,7 +8642,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -8512,7 +8656,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -8532,7 +8676,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B97D9906-C9F7-4564-A75D-94EA6AB2940F}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8544,7 +8690,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.45">
@@ -8600,12 +8746,12 @@
         <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
@@ -8619,7 +8765,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
@@ -8640,7 +8786,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8653,13 +8799,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C1" t="s">
         <v>13</v>
       </c>
       <c r="D1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -8687,13 +8833,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -8704,33 +8850,33 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>268</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -8749,62 +8895,62 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D84EDA3-B5A3-4F6F-BE77-561BF39A007A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F565AB-7532-4BD9-A3E1-F034F68866DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="14" activeTab="18" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="14" activeTab="16" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -5635,8 +5635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B735065-E9DF-44C9-8F27-0ECDE1230632}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6024,7 +6024,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1233C3-FC6F-45A3-BAB7-B7B72BA8A977}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/Excel2Json/bin/ep03/ep03_1.xlsx
+++ b/Excel2Json/bin/ep03/ep03_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\justb\GitHub\Slanted_Structure\Excel2Json\bin\ep03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F565AB-7532-4BD9-A3E1-F034F68866DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C39AF6-E0CD-4EDF-A384-90194392E477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="14" activeTab="16" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" tabRatio="722" firstSheet="15" activeTab="27" xr2:uid="{8980CEE3-478D-4723-BEB1-C8C193204C53}"/>
   </bookViews>
   <sheets>
     <sheet name="301010" sheetId="2" r:id="rId1"/>
@@ -2229,7 +2229,8 @@
 FadeIn = 9
 FadeOut=10
 Cinematic = 11
-EndingChoice=12</t>
+EndingChoice=12
+Clear = 13</t>
         </r>
         <r>
           <rPr>
@@ -2807,7 +2808,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="274">
   <si>
     <t>이름</t>
   </si>
@@ -3860,6 +3861,18 @@
   </si>
   <si>
     <t>301011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ending02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4440,10 +4453,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{649E80ED-4B99-4996-8CD0-4C4C56E68A53}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -4508,32 +4521,30 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
       <c r="B5">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -5635,7 +5646,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B735065-E9DF-44C9-8F27-0ECDE1230632}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6147,7 +6158,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6913,10 +6924,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7185AAD0-BF7D-431D-A071-CBDE87513AD9}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -6999,32 +7010,30 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>171</v>
+        <v>273</v>
       </c>
       <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
-        <v>7</v>
-      </c>
-      <c r="D7">
         <v>1</v>
       </c>
     </row>
@@ -7677,8 +7686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEF68C27-7EF6-496F-8834-519F87F946A0}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8037,10 +8046,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E7A1D2-D6EB-4ADC-AC1E-9B15984B6922}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8123,19 +8132,28 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -8143,26 +8161,15 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>271</v>
       </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="D8">
         <v>1</v>
       </c>
     </row>
@@ -8179,7 +8186,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8299,7 +8306,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8469,7 +8476,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -8550,7 +8557,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8786,7 +8794,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
